--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Halouani.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Halouani.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454E568-658C-4495-800B-D9855950E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$27</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -51,13 +53,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -390,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -626,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -650,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -700,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -732,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -913,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -946,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -971,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -997,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1122,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1201,13 +1203,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1371,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1464,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1567,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1594,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1642,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1749,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1850,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2121,7 +2123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2147,7 +2149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2174,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2222,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2272,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2321,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2351,12 +2353,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="306">
   <si>
     <t>SearchID</t>
   </si>
@@ -3301,12 +3303,15 @@
   </si>
   <si>
     <t>PCA _ variation partitioning</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3752,31 +3757,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5:AF26"/>
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3847,7 @@
       <c r="AW1" s="13"/>
       <c r="AX1" s="13"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -4049,8 +4054,11 @@
       <c r="R3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>257</v>
       </c>
@@ -4133,7 +4141,7 @@
         <v>3</v>
       </c>
       <c r="AF4">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AG4" t="s">
         <v>107</v>
@@ -4178,7 +4186,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>266</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4434,7 +4442,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>266</v>
       </c>
@@ -4690,7 +4698,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>266</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -5074,7 +5082,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>266</v>
       </c>
@@ -5202,7 +5210,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>266</v>
       </c>
@@ -5330,7 +5338,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>266</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>266</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>266</v>
       </c>
@@ -6354,7 +6362,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -6482,7 +6490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -6610,7 +6618,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>266</v>
       </c>
@@ -6866,7 +6874,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>266</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -7061,14 +7069,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P27:P1048576 Q3:Q26"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P27:P1048576 Q3:Q26" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AI3:AJ1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7078,91 +7086,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
           <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
@@ -7175,24 +7183,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -7258,7 +7266,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -7410,7 +7418,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -7524,7 +7532,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -7580,7 +7588,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -7625,7 +7633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -7667,7 +7675,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -7705,7 +7713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -7807,7 +7815,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -7839,7 +7847,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -7874,7 +7882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -7903,7 +7911,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -7932,7 +7940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -7960,22 +7968,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -8010,7 +8018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -8070,7 +8078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -8089,12 +8097,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -8117,7 +8125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -8169,7 +8177,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -8189,7 +8197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -8204,7 +8212,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -8218,7 +8226,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -8226,10 +8234,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8250,45 +8258,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -8335,7 +8343,7 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -8436,7 +8444,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -8502,7 +8510,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -8553,7 +8561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -8607,7 +8615,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -8649,7 +8657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -8694,7 +8702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8732,7 +8740,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -8770,7 +8778,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -8805,7 +8813,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -8869,7 +8877,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -8898,7 +8906,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -8947,7 +8955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -8964,7 +8972,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -8989,7 +8997,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -9003,7 +9011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -9014,7 +9022,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -9028,7 +9036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -9039,7 +9047,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -9058,7 +9066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -9066,7 +9074,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -9074,7 +9082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -9088,7 +9096,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -9099,7 +9107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -9110,7 +9118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -9121,7 +9129,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -9129,7 +9137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -9137,12 +9145,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -9168,15 +9176,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9290,30 +9289,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9327,4 +9327,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Halouani.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Halouani.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454E568-658C-4495-800B-D9855950E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F02EE5-BDB8-4334-A689-E5CC66B415B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3227,9 +3227,6 @@
     <t>Sensitivity to physical disturbance</t>
   </si>
   <si>
-    <t>Recorverability after physical disturbance</t>
-  </si>
-  <si>
     <t>Vulnerability to physical disturbance</t>
   </si>
   <si>
@@ -3306,6 +3303,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Recoverability after physical disturbance</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3445,13 +3445,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3760,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3782,70 +3780,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4055,7 +4053,7 @@
         <v>87</v>
       </c>
       <c r="AF3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.35">
@@ -4129,7 +4127,7 @@
         <v>216</v>
       </c>
       <c r="Z4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -4153,7 +4151,7 @@
         <v>144</v>
       </c>
       <c r="AL4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -4162,7 +4160,7 @@
         <v>161</v>
       </c>
       <c r="AO4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -4174,7 +4172,7 @@
         <v>188</v>
       </c>
       <c r="AU4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AV4" t="s">
         <v>200</v>
@@ -4183,7 +4181,7 @@
         <v>208</v>
       </c>
       <c r="AX4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -4257,7 +4255,7 @@
         <v>275</v>
       </c>
       <c r="Z5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -4268,7 +4266,7 @@
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5">
         <v>4.3</v>
       </c>
       <c r="AG5" t="s">
@@ -4302,7 +4300,7 @@
         <v>175</v>
       </c>
       <c r="AU5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AV5" t="s">
         <v>200</v>
@@ -4311,7 +4309,7 @@
         <v>208</v>
       </c>
       <c r="AX5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
@@ -4385,7 +4383,7 @@
         <v>275</v>
       </c>
       <c r="Z6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -4396,7 +4394,7 @@
       <c r="AC6">
         <v>3</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6">
         <v>4.3</v>
       </c>
       <c r="AG6" t="s">
@@ -4430,7 +4428,7 @@
         <v>175</v>
       </c>
       <c r="AU6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AV6" t="s">
         <v>113</v>
@@ -4439,7 +4437,7 @@
         <v>208</v>
       </c>
       <c r="AX6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.35">
@@ -4513,7 +4511,7 @@
         <v>275</v>
       </c>
       <c r="Z7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -4524,7 +4522,7 @@
       <c r="AC7">
         <v>3</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7">
         <v>4.3</v>
       </c>
       <c r="AG7" t="s">
@@ -4558,7 +4556,7 @@
         <v>175</v>
       </c>
       <c r="AU7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AV7" t="s">
         <v>212</v>
@@ -4567,7 +4565,7 @@
         <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
@@ -4641,7 +4639,7 @@
         <v>275</v>
       </c>
       <c r="Z8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -4652,7 +4650,7 @@
       <c r="AC8">
         <v>3</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8">
         <v>4.3</v>
       </c>
       <c r="AG8" t="s">
@@ -4686,7 +4684,7 @@
         <v>175</v>
       </c>
       <c r="AU8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AV8" t="s">
         <v>212</v>
@@ -4695,7 +4693,7 @@
         <v>210</v>
       </c>
       <c r="AX8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
@@ -4769,7 +4767,7 @@
         <v>275</v>
       </c>
       <c r="Z9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -4780,7 +4778,7 @@
       <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9">
         <v>4.3</v>
       </c>
       <c r="AG9" t="s">
@@ -4814,7 +4812,7 @@
         <v>175</v>
       </c>
       <c r="AU9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AV9" t="s">
         <v>201</v>
@@ -4823,7 +4821,7 @@
         <v>210</v>
       </c>
       <c r="AX9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.35">
@@ -4897,7 +4895,7 @@
         <v>275</v>
       </c>
       <c r="Z10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA10">
         <v>2</v>
@@ -4908,7 +4906,7 @@
       <c r="AC10">
         <v>3</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10">
         <v>4.3</v>
       </c>
       <c r="AG10" t="s">
@@ -4942,7 +4940,7 @@
         <v>175</v>
       </c>
       <c r="AU10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV10" t="s">
         <v>200</v>
@@ -4951,7 +4949,7 @@
         <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
@@ -5025,7 +5023,7 @@
         <v>275</v>
       </c>
       <c r="Z11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5036,7 +5034,7 @@
       <c r="AC11">
         <v>3</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11">
         <v>4.3</v>
       </c>
       <c r="AG11" t="s">
@@ -5070,7 +5068,7 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV11" t="s">
         <v>201</v>
@@ -5079,7 +5077,7 @@
         <v>208</v>
       </c>
       <c r="AX11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.35">
@@ -5153,7 +5151,7 @@
         <v>275</v>
       </c>
       <c r="Z12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -5164,7 +5162,7 @@
       <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12">
         <v>4.3</v>
       </c>
       <c r="AG12" t="s">
@@ -5198,7 +5196,7 @@
         <v>175</v>
       </c>
       <c r="AU12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV12" t="s">
         <v>201</v>
@@ -5207,7 +5205,7 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -5281,7 +5279,7 @@
         <v>275</v>
       </c>
       <c r="Z13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA13">
         <v>2</v>
@@ -5292,7 +5290,7 @@
       <c r="AC13">
         <v>3</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AF13">
         <v>4.3</v>
       </c>
       <c r="AG13" t="s">
@@ -5329,13 +5327,13 @@
         <v>278</v>
       </c>
       <c r="AV13" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW13" t="s">
         <v>208</v>
       </c>
       <c r="AX13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -5409,7 +5407,7 @@
         <v>275</v>
       </c>
       <c r="Z14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -5420,7 +5418,7 @@
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14">
         <v>4.3</v>
       </c>
       <c r="AG14" t="s">
@@ -5454,16 +5452,16 @@
         <v>175</v>
       </c>
       <c r="AU14" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AV14" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW14" t="s">
         <v>208</v>
       </c>
       <c r="AX14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.35">
@@ -5537,7 +5535,7 @@
         <v>275</v>
       </c>
       <c r="Z15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -5548,7 +5546,7 @@
       <c r="AC15">
         <v>3</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15">
         <v>4.3</v>
       </c>
       <c r="AG15" t="s">
@@ -5582,16 +5580,16 @@
         <v>175</v>
       </c>
       <c r="AU15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AV15" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW15" t="s">
         <v>208</v>
       </c>
       <c r="AX15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.35">
@@ -5665,7 +5663,7 @@
         <v>275</v>
       </c>
       <c r="Z16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -5676,7 +5674,7 @@
       <c r="AC16">
         <v>3</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AF16">
         <v>4.3</v>
       </c>
       <c r="AG16" t="s">
@@ -5710,7 +5708,7 @@
         <v>176</v>
       </c>
       <c r="AU16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AV16" t="s">
         <v>200</v>
@@ -5719,7 +5717,7 @@
         <v>208</v>
       </c>
       <c r="AX16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.35">
@@ -5793,7 +5791,7 @@
         <v>275</v>
       </c>
       <c r="Z17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -5804,7 +5802,7 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AF17">
         <v>4.3</v>
       </c>
       <c r="AG17" t="s">
@@ -5838,7 +5836,7 @@
         <v>176</v>
       </c>
       <c r="AU17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AV17" t="s">
         <v>113</v>
@@ -5847,7 +5845,7 @@
         <v>208</v>
       </c>
       <c r="AX17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
@@ -5921,7 +5919,7 @@
         <v>275</v>
       </c>
       <c r="Z18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -5932,7 +5930,7 @@
       <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF18">
         <v>4.3</v>
       </c>
       <c r="AG18" t="s">
@@ -5966,7 +5964,7 @@
         <v>176</v>
       </c>
       <c r="AU18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AV18" t="s">
         <v>212</v>
@@ -5975,7 +5973,7 @@
         <v>208</v>
       </c>
       <c r="AX18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.35">
@@ -6049,7 +6047,7 @@
         <v>275</v>
       </c>
       <c r="Z19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6060,7 +6058,7 @@
       <c r="AC19">
         <v>3</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19">
         <v>4.3</v>
       </c>
       <c r="AG19" t="s">
@@ -6094,7 +6092,7 @@
         <v>176</v>
       </c>
       <c r="AU19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AV19" t="s">
         <v>212</v>
@@ -6103,7 +6101,7 @@
         <v>208</v>
       </c>
       <c r="AX19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.35">
@@ -6177,7 +6175,7 @@
         <v>275</v>
       </c>
       <c r="Z20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6188,7 +6186,7 @@
       <c r="AC20">
         <v>3</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF20">
         <v>4.3</v>
       </c>
       <c r="AG20" t="s">
@@ -6222,7 +6220,7 @@
         <v>176</v>
       </c>
       <c r="AU20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AV20" t="s">
         <v>201</v>
@@ -6231,7 +6229,7 @@
         <v>208</v>
       </c>
       <c r="AX20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
@@ -6305,7 +6303,7 @@
         <v>275</v>
       </c>
       <c r="Z21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6316,7 +6314,7 @@
       <c r="AC21">
         <v>3</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21">
         <v>4.3</v>
       </c>
       <c r="AG21" t="s">
@@ -6350,7 +6348,7 @@
         <v>176</v>
       </c>
       <c r="AU21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV21" t="s">
         <v>200</v>
@@ -6359,7 +6357,7 @@
         <v>208</v>
       </c>
       <c r="AX21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -6433,7 +6431,7 @@
         <v>275</v>
       </c>
       <c r="Z22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -6444,7 +6442,7 @@
       <c r="AC22">
         <v>3</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AF22">
         <v>4.3</v>
       </c>
       <c r="AG22" t="s">
@@ -6478,7 +6476,7 @@
         <v>176</v>
       </c>
       <c r="AU22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV22" t="s">
         <v>201</v>
@@ -6487,7 +6485,7 @@
         <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -6561,7 +6559,7 @@
         <v>275</v>
       </c>
       <c r="Z23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA23">
         <v>2</v>
@@ -6572,7 +6570,7 @@
       <c r="AC23">
         <v>3</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF23">
         <v>4.3</v>
       </c>
       <c r="AG23" t="s">
@@ -6606,7 +6604,7 @@
         <v>176</v>
       </c>
       <c r="AU23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV23" t="s">
         <v>201</v>
@@ -6615,7 +6613,7 @@
         <v>208</v>
       </c>
       <c r="AX23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -6689,7 +6687,7 @@
         <v>275</v>
       </c>
       <c r="Z24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA24">
         <v>2</v>
@@ -6700,7 +6698,7 @@
       <c r="AC24">
         <v>3</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24">
         <v>4.3</v>
       </c>
       <c r="AG24" t="s">
@@ -6737,13 +6735,13 @@
         <v>278</v>
       </c>
       <c r="AV24" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW24" t="s">
         <v>208</v>
       </c>
       <c r="AX24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
@@ -6817,7 +6815,7 @@
         <v>275</v>
       </c>
       <c r="Z25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -6828,7 +6826,7 @@
       <c r="AC25">
         <v>3</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF25">
         <v>4.3</v>
       </c>
       <c r="AG25" t="s">
@@ -6862,16 +6860,16 @@
         <v>176</v>
       </c>
       <c r="AU25" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AV25" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW25" t="s">
         <v>208</v>
       </c>
       <c r="AX25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -6945,7 +6943,7 @@
         <v>275</v>
       </c>
       <c r="Z26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -6956,7 +6954,7 @@
       <c r="AC26">
         <v>3</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26">
         <v>4.3</v>
       </c>
       <c r="AG26" t="s">
@@ -6990,48 +6988,48 @@
         <v>176</v>
       </c>
       <c r="AU26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AV26" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW26" t="s">
         <v>208</v>
       </c>
       <c r="AX26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" t="s">
         <v>295</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
       </c>
       <c r="E27">
         <v>1996</v>
       </c>
       <c r="F27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" t="s">
         <v>297</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>298</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>299</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>300</v>
-      </c>
-      <c r="J27" t="s">
-        <v>301</v>
       </c>
       <c r="K27" t="s">
         <v>252</v>
@@ -7040,10 +7038,10 @@
         <v>252</v>
       </c>
       <c r="M27" t="s">
+        <v>301</v>
+      </c>
+      <c r="N27" t="s">
         <v>302</v>
-      </c>
-      <c r="N27" t="s">
-        <v>303</v>
       </c>
       <c r="O27" t="s">
         <v>255</v>
@@ -7184,7 +7182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
@@ -7201,70 +7199,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="12" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -7586,7 +7584,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -7974,7 +7972,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8177,7 +8175,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -8197,7 +8195,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -8210,9 +8208,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
-    </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -8226,7 +8223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -8234,10 +8231,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8297,51 +8294,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="12" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="13" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8864,7 +8861,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -9170,14 +9167,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9290,31 +9290,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0D4D05-F29A-4243-95DC-E82CE4E85270}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9330,9 +9320,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>